--- a/data/case1/14/Plm1_2.xlsx
+++ b/data/case1/14/Plm1_2.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.33598334013737485</v>
+        <v>-0.46865769738307961</v>
       </c>
       <c r="B1" s="0">
-        <v>0.33512051980271451</v>
+        <v>0.46686837043186813</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.24882311569388982</v>
+        <v>-0.3462172945012103</v>
       </c>
       <c r="B2" s="0">
-        <v>0.24620655168937766</v>
+        <v>0.34080332796068724</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.14325652338164474</v>
+        <v>-0.13567242477264685</v>
       </c>
       <c r="B3" s="0">
-        <v>0.14254464921718579</v>
+        <v>0.13504293487991959</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.13054464934482013</v>
+        <v>-0.12304293497257035</v>
       </c>
       <c r="B4" s="0">
-        <v>0.12992142617314428</v>
+        <v>0.12249876618871269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.12392142662408201</v>
+        <v>-0.11649876651384172</v>
       </c>
       <c r="B5" s="0">
-        <v>0.12268757124276242</v>
+        <v>0.11542960212888609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.069330305594144548</v>
+        <v>-0.048897964744414768</v>
       </c>
       <c r="B6" s="0">
-        <v>0.069260726158512753</v>
+        <v>0.048864771317711941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.098603182772862397</v>
+        <v>-0.028864771714145476</v>
       </c>
       <c r="B7" s="0">
-        <v>0.098022580430066952</v>
+        <v>0.02882399773812061</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.078022580994193014</v>
+        <v>-0.0088239981360098696</v>
       </c>
       <c r="B8" s="0">
-        <v>0.077488181320590321</v>
+        <v>0.0088176437017892795</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.042977124321017968</v>
+        <v>-0.0028176440372762457</v>
       </c>
       <c r="B9" s="0">
-        <v>0.042827017216596097</v>
+        <v>0.0028146776129940321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.036827017704062825</v>
+        <v>0.0031853220513866631</v>
       </c>
       <c r="B10" s="0">
-        <v>0.036810669204619728</v>
+        <v>-0.0031845476895355773</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.051493109275426718</v>
+        <v>-0.051482554028503102</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051411707580456323</v>
+        <v>0.051402318269545333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045411708070036916</v>
+        <v>-0.045402318606510672</v>
       </c>
       <c r="B12" s="0">
-        <v>0.04515726047711599</v>
+        <v>0.04515409651364255</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039157260975068553</v>
+        <v>-0.039154096855932963</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039088086724230919</v>
+        <v>0.039086490381000871</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027088087264173666</v>
+        <v>-0.027086490752003201</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027054789766436826</v>
+        <v>0.027053779699781622</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021054790268958179</v>
+        <v>-0.021053780045035886</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021028598346229721</v>
+        <v>0.02102803311566781</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0150285988505936</v>
+        <v>-0.015028033462132662</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004475267610173</v>
+        <v>0.015004530570141839</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090044757744136561</v>
+        <v>-0.0090045309181876476</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999994728406918</v>
+        <v>0.0089999996380356606</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.076297404561881166</v>
+        <v>-0.11065107625352155</v>
       </c>
       <c r="B18" s="0">
-        <v>0.076224615574790988</v>
+        <v>0.11048623324072437</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.067224616022472983</v>
+        <v>-0.027097430354861451</v>
       </c>
       <c r="B19" s="0">
-        <v>0.066674108058798698</v>
+        <v>0.027013861145249951</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.057674108517495881</v>
+        <v>-0.018013861467926162</v>
       </c>
       <c r="B20" s="0">
-        <v>0.057561509139231859</v>
+        <v>0.018004299918702671</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043158244057508</v>
+        <v>-0.0090043002418562779</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999995382772369</v>
+        <v>0.0089999996764866808</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093950028767499916</v>
+        <v>-0.19613090351959528</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093636315630035938</v>
+        <v>0.19446293081965926</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084636316094242048</v>
+        <v>-0.13227716054181471</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127142575243674</v>
+        <v>0.13063827000284434</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127143263844147</v>
+        <v>-0.088638270499173721</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999307368974</v>
+        <v>0.087777373258987268</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.047357266111490048</v>
+        <v>-0.060531637717151199</v>
       </c>
       <c r="B25" s="0">
-        <v>0.047287583742999573</v>
+        <v>0.060435502262201624</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.041287584206717298</v>
+        <v>-0.054435502595655549</v>
       </c>
       <c r="B26" s="0">
-        <v>0.041202106897909374</v>
+        <v>0.054317338597655862</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.035202107362842572</v>
+        <v>-0.048317338932292841</v>
       </c>
       <c r="B27" s="0">
-        <v>0.034923123192537542</v>
+        <v>0.047933171217785286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.028923123661904526</v>
+        <v>-0.041933171556684634</v>
       </c>
       <c r="B28" s="0">
-        <v>0.028743429824348077</v>
+        <v>0.041683160572477007</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.06253070859094656</v>
+        <v>-0.02968316094106882</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062168010315632571</v>
+        <v>0.029580442865359657</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042168010883214535</v>
+        <v>-0.0095804432710999698</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042019243114784999</v>
+        <v>0.009560227957024825</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019243654576641</v>
+        <v>-0.027019868363030497</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000636232640929</v>
+        <v>0.027000837734604488</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060006368127512033</v>
+        <v>-0.0060008381462060001</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999995181083676</v>
+        <v>0.0059999996557786872</v>
       </c>
     </row>
   </sheetData>
